--- a/data/trans_orig/IP24_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP24_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A3A38A5-663B-4CFA-B198-4F58A7305F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B876329-1CA8-4604-AC59-7DEDD9284C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{ADCF0646-100B-4823-B343-B46FD212AD63}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{26AF3FC5-7557-45DA-A802-9F728E31A0A8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,63 +248,6 @@
     <t>12,98%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
     <t>76,59%</t>
   </si>
   <si>
@@ -359,6 +359,54 @@
     <t>48,34%</t>
   </si>
   <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
     <t>96,18%</t>
   </si>
   <si>
@@ -407,54 +455,6 @@
     <t>9,41%</t>
   </si>
   <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
     <t>84,06%</t>
   </si>
   <si>
@@ -560,6 +560,60 @@
     <t>50,06%</t>
   </si>
   <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
     <t>94,74%</t>
   </si>
   <si>
@@ -614,60 +668,6 @@
     <t>10,58%</t>
   </si>
   <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
     <t>83,2%</t>
   </si>
   <si>
@@ -779,6 +779,54 @@
     <t>39,31%</t>
   </si>
   <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
     <t>86,51%</t>
   </si>
   <si>
@@ -825,54 +873,6 @@
   </si>
   <si>
     <t>19,49%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
   </si>
   <si>
     <t>83,49%</t>
@@ -1312,7 +1312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A19C0B-7A37-4FBC-A4FA-4BE10922F58B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E477BF-33EE-45A4-B970-A4C5151D799B}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1585,10 +1585,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>388</v>
+        <v>285</v>
       </c>
       <c r="D7" s="7">
-        <v>258759</v>
+        <v>187908</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1600,10 +1600,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="I7" s="7">
-        <v>229575</v>
+        <v>175878</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1615,10 +1615,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>728</v>
+        <v>545</v>
       </c>
       <c r="N7" s="7">
-        <v>488334</v>
+        <v>363785</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1636,10 +1636,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D8" s="7">
-        <v>22739</v>
+        <v>30133</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1651,10 +1651,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I8" s="7">
-        <v>35396</v>
+        <v>28612</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1666,10 +1666,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N8" s="7">
-        <v>58135</v>
+        <v>58746</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1687,10 +1687,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1702,10 +1702,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>393</v>
+        <v>303</v>
       </c>
       <c r="I9" s="7">
-        <v>264971</v>
+        <v>204490</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1717,10 +1717,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>815</v>
+        <v>633</v>
       </c>
       <c r="N9" s="7">
-        <v>546469</v>
+        <v>422531</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1740,10 +1740,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>285</v>
+        <v>388</v>
       </c>
       <c r="D10" s="7">
-        <v>187908</v>
+        <v>258759</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1755,10 +1755,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="I10" s="7">
-        <v>175878</v>
+        <v>229575</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1770,10 +1770,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>545</v>
+        <v>728</v>
       </c>
       <c r="N10" s="7">
-        <v>363785</v>
+        <v>488334</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1791,10 +1791,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7">
-        <v>30133</v>
+        <v>22739</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1806,10 +1806,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I11" s="7">
-        <v>28612</v>
+        <v>35396</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1821,10 +1821,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N11" s="7">
-        <v>58746</v>
+        <v>58135</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1842,10 +1842,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1857,10 +1857,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>303</v>
+        <v>393</v>
       </c>
       <c r="I12" s="7">
-        <v>204490</v>
+        <v>264971</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1872,10 +1872,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>633</v>
+        <v>815</v>
       </c>
       <c r="N12" s="7">
-        <v>422531</v>
+        <v>546469</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2058,7 +2058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FCA7F4E-4106-44B8-B21C-6C79FEC72231}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76929B82-FE4A-4B83-961D-15D1B36F3EEB}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2331,10 +2331,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>384</v>
+        <v>324</v>
       </c>
       <c r="D7" s="7">
-        <v>260350</v>
+        <v>234527</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>106</v>
@@ -2346,10 +2346,10 @@
         <v>108</v>
       </c>
       <c r="H7" s="7">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="I7" s="7">
-        <v>227343</v>
+        <v>212944</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>109</v>
@@ -2361,19 +2361,19 @@
         <v>111</v>
       </c>
       <c r="M7" s="7">
-        <v>706</v>
+        <v>623</v>
       </c>
       <c r="N7" s="7">
-        <v>487693</v>
+        <v>447471</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,10 +2382,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>10352</v>
+        <v>6792</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>114</v>
@@ -2397,10 +2397,10 @@
         <v>116</v>
       </c>
       <c r="H8" s="7">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I8" s="7">
-        <v>28431</v>
+        <v>15147</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>117</v>
@@ -2412,19 +2412,19 @@
         <v>119</v>
       </c>
       <c r="M8" s="7">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="N8" s="7">
-        <v>38783</v>
+        <v>21939</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,10 +2433,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>399</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>270702</v>
+        <v>241319</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2448,10 +2448,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="I9" s="7">
-        <v>255774</v>
+        <v>228091</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2463,10 +2463,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>763</v>
+        <v>653</v>
       </c>
       <c r="N9" s="7">
-        <v>526476</v>
+        <v>469410</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2486,10 +2486,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>324</v>
+        <v>384</v>
       </c>
       <c r="D10" s="7">
-        <v>234527</v>
+        <v>260350</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>122</v>
@@ -2501,10 +2501,10 @@
         <v>124</v>
       </c>
       <c r="H10" s="7">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="I10" s="7">
-        <v>212944</v>
+        <v>227343</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>125</v>
@@ -2516,19 +2516,19 @@
         <v>127</v>
       </c>
       <c r="M10" s="7">
-        <v>623</v>
+        <v>706</v>
       </c>
       <c r="N10" s="7">
-        <v>447471</v>
+        <v>487693</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,10 +2537,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7">
-        <v>6792</v>
+        <v>10352</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>130</v>
@@ -2552,10 +2552,10 @@
         <v>132</v>
       </c>
       <c r="H11" s="7">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I11" s="7">
-        <v>15147</v>
+        <v>28431</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>133</v>
@@ -2567,19 +2567,19 @@
         <v>135</v>
       </c>
       <c r="M11" s="7">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="N11" s="7">
-        <v>21939</v>
+        <v>38783</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,10 +2588,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>334</v>
+        <v>399</v>
       </c>
       <c r="D12" s="7">
-        <v>241319</v>
+        <v>270702</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2603,10 +2603,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="I12" s="7">
-        <v>228091</v>
+        <v>255774</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2618,10 +2618,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>653</v>
+        <v>763</v>
       </c>
       <c r="N12" s="7">
-        <v>469410</v>
+        <v>526476</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2804,7 +2804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19675F30-B9EE-4016-860E-09A39BE581ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D29583C-9D9C-4BC3-806C-EF7C2282BBB8}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3077,10 +3077,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="D7" s="7">
-        <v>265147</v>
+        <v>232983</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>173</v>
@@ -3092,10 +3092,10 @@
         <v>175</v>
       </c>
       <c r="H7" s="7">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="I7" s="7">
-        <v>235172</v>
+        <v>210775</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>176</v>
@@ -3107,10 +3107,10 @@
         <v>178</v>
       </c>
       <c r="M7" s="7">
-        <v>688</v>
+        <v>660</v>
       </c>
       <c r="N7" s="7">
-        <v>500320</v>
+        <v>443758</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>179</v>
@@ -3128,10 +3128,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7">
-        <v>14735</v>
+        <v>17069</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>182</v>
@@ -3143,10 +3143,10 @@
         <v>184</v>
       </c>
       <c r="H8" s="7">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I8" s="7">
-        <v>31911</v>
+        <v>24558</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>185</v>
@@ -3158,10 +3158,10 @@
         <v>187</v>
       </c>
       <c r="M8" s="7">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N8" s="7">
-        <v>46645</v>
+        <v>41627</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>188</v>
@@ -3179,10 +3179,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>279882</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3194,10 +3194,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>267083</v>
+        <v>235333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3209,10 +3209,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>753</v>
+        <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>546965</v>
+        <v>485385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3232,10 +3232,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="D10" s="7">
-        <v>232983</v>
+        <v>265147</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>191</v>
@@ -3247,10 +3247,10 @@
         <v>193</v>
       </c>
       <c r="H10" s="7">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I10" s="7">
-        <v>210775</v>
+        <v>235172</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>194</v>
@@ -3262,10 +3262,10 @@
         <v>196</v>
       </c>
       <c r="M10" s="7">
-        <v>660</v>
+        <v>688</v>
       </c>
       <c r="N10" s="7">
-        <v>443758</v>
+        <v>500320</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>197</v>
@@ -3283,10 +3283,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7">
-        <v>17069</v>
+        <v>14735</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>200</v>
@@ -3298,10 +3298,10 @@
         <v>202</v>
       </c>
       <c r="H11" s="7">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I11" s="7">
-        <v>24558</v>
+        <v>31911</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>203</v>
@@ -3313,10 +3313,10 @@
         <v>205</v>
       </c>
       <c r="M11" s="7">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N11" s="7">
-        <v>41627</v>
+        <v>46645</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>206</v>
@@ -3334,10 +3334,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>279882</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3349,10 +3349,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="I12" s="7">
-        <v>235333</v>
+        <v>267083</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3364,10 +3364,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>723</v>
+        <v>753</v>
       </c>
       <c r="N12" s="7">
-        <v>485385</v>
+        <v>546965</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3550,7 +3550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50F56F8-076A-4788-BA4A-15B72DC73AD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EEDDD4-08FB-4ABE-A807-8F0643355269}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3823,25 +3823,25 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>415</v>
+        <v>234</v>
       </c>
       <c r="D7" s="7">
-        <v>348375</v>
+        <v>179987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>139</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
-        <v>390</v>
+        <v>238</v>
       </c>
       <c r="I7" s="7">
-        <v>289557</v>
+        <v>166893</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>248</v>
@@ -3853,10 +3853,10 @@
         <v>250</v>
       </c>
       <c r="M7" s="7">
-        <v>805</v>
+        <v>472</v>
       </c>
       <c r="N7" s="7">
-        <v>637933</v>
+        <v>346880</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>251</v>
@@ -3874,25 +3874,25 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D8" s="7">
-        <v>54335</v>
+        <v>24180</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="H8" s="7">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="I8" s="7">
-        <v>61251</v>
+        <v>31374</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>256</v>
@@ -3904,10 +3904,10 @@
         <v>258</v>
       </c>
       <c r="M8" s="7">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="N8" s="7">
-        <v>115586</v>
+        <v>55555</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>259</v>
@@ -3925,10 +3925,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>479</v>
+        <v>270</v>
       </c>
       <c r="D9" s="7">
-        <v>402710</v>
+        <v>204167</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3940,10 +3940,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>462</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>350808</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3955,10 +3955,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>941</v>
+        <v>551</v>
       </c>
       <c r="N9" s="7">
-        <v>753519</v>
+        <v>402435</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3978,25 +3978,25 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>234</v>
+        <v>415</v>
       </c>
       <c r="D10" s="7">
-        <v>179987</v>
+        <v>348375</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="H10" s="7">
-        <v>238</v>
+        <v>390</v>
       </c>
       <c r="I10" s="7">
-        <v>166893</v>
+        <v>289557</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>264</v>
@@ -4008,10 +4008,10 @@
         <v>266</v>
       </c>
       <c r="M10" s="7">
-        <v>472</v>
+        <v>805</v>
       </c>
       <c r="N10" s="7">
-        <v>346880</v>
+        <v>637933</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>267</v>
@@ -4029,25 +4029,25 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D11" s="7">
-        <v>24180</v>
+        <v>54335</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>148</v>
       </c>
       <c r="H11" s="7">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="I11" s="7">
-        <v>31374</v>
+        <v>61251</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>272</v>
@@ -4059,10 +4059,10 @@
         <v>274</v>
       </c>
       <c r="M11" s="7">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="N11" s="7">
-        <v>55555</v>
+        <v>115586</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>275</v>
@@ -4080,10 +4080,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>270</v>
+        <v>479</v>
       </c>
       <c r="D12" s="7">
-        <v>204167</v>
+        <v>402710</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4095,10 +4095,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>462</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>350808</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4110,10 +4110,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>551</v>
+        <v>941</v>
       </c>
       <c r="N12" s="7">
-        <v>402435</v>
+        <v>753519</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4175,7 +4175,7 @@
         <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,7 +4223,7 @@
         <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>293</v>

--- a/data/trans_orig/IP24_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP24_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B876329-1CA8-4604-AC59-7DEDD9284C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FF6C507-4D4D-4943-84B0-AE4839DAE84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{26AF3FC5-7557-45DA-A802-9F728E31A0A8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7E7BF590-26F8-4C90-B12F-9606DA3DC758}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="370">
   <si>
     <t>Menores según si no hacen ejercicio en 2007 (Tasa respuesta: 99,76%)</t>
   </si>
@@ -68,859 +68,1087 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si no hacen ejercicio en 2012 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
   </si>
   <si>
     <t>86,18%</t>
   </si>
   <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>Menores según si no hacen ejercicio en 2012 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>Menores según si no hacen ejercicio en 2015 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>Menores según si no hacen ejercicio en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
   </si>
   <si>
     <t>54,99%</t>
   </si>
   <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
   </si>
   <si>
     <t>45,01%</t>
   </si>
   <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
   </si>
   <si>
     <t>83,78%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>Menores según si no hacen ejercicio en 2015 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>Menores según si no hacen ejercicio en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
   </si>
   <si>
     <t>83,49%</t>
   </si>
   <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
   </si>
   <si>
     <t>80,46%</t>
   </si>
   <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
   </si>
   <si>
     <t>82,05%</t>
   </si>
   <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
   </si>
 </sst>
 </file>
@@ -931,7 +1159,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1027,39 +1255,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1111,7 +1339,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1222,13 +1450,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1237,6 +1458,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1301,19 +1529,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E477BF-33EE-45A4-B970-A4C5151D799B}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9081D4-B1E0-4091-AE48-269755D85505}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1430,10 +1678,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="D4" s="7">
-        <v>105808</v>
+        <v>85074</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1445,10 +1693,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="I4" s="7">
-        <v>101752</v>
+        <v>77305</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1460,10 +1708,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>313</v>
+        <v>246</v>
       </c>
       <c r="N4" s="7">
-        <v>207560</v>
+        <v>162380</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1481,10 +1729,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="D5" s="7">
-        <v>116001</v>
+        <v>34954</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1496,10 +1744,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="I5" s="7">
-        <v>107722</v>
+        <v>28866</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1511,10 +1759,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>338</v>
+        <v>96</v>
       </c>
       <c r="N5" s="7">
-        <v>223723</v>
+        <v>63820</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1532,10 +1780,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>180</v>
       </c>
       <c r="D6" s="7">
-        <v>221809</v>
+        <v>120028</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1547,10 +1795,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>319</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>209474</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1562,10 +1810,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>651</v>
+        <v>342</v>
       </c>
       <c r="N6" s="7">
-        <v>431283</v>
+        <v>226200</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1585,10 +1833,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="D7" s="7">
-        <v>187908</v>
+        <v>54371</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1600,10 +1848,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>260</v>
+        <v>78</v>
       </c>
       <c r="I7" s="7">
-        <v>175878</v>
+        <v>51694</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1615,10 +1863,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>545</v>
+        <v>159</v>
       </c>
       <c r="N7" s="7">
-        <v>363785</v>
+        <v>106065</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1636,10 +1884,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="D8" s="7">
-        <v>30133</v>
+        <v>199385</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1651,10 +1899,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>43</v>
+        <v>299</v>
       </c>
       <c r="I8" s="7">
-        <v>28612</v>
+        <v>200057</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1666,10 +1914,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>88</v>
+        <v>600</v>
       </c>
       <c r="N8" s="7">
-        <v>58746</v>
+        <v>399442</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1687,10 +1935,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1702,10 +1950,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>303</v>
+        <v>377</v>
       </c>
       <c r="I9" s="7">
-        <v>204490</v>
+        <v>251751</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1717,10 +1965,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>633</v>
+        <v>759</v>
       </c>
       <c r="N9" s="7">
-        <v>422531</v>
+        <v>505507</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1740,10 +1988,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>388</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>258759</v>
+        <v>13705</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1755,10 +2003,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>340</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7">
-        <v>229575</v>
+        <v>15600</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1770,10 +2018,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>728</v>
+        <v>45</v>
       </c>
       <c r="N10" s="7">
-        <v>488334</v>
+        <v>29306</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1791,10 +2039,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="D11" s="7">
-        <v>22739</v>
+        <v>127810</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1806,10 +2054,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="I11" s="7">
-        <v>35396</v>
+        <v>111316</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1821,10 +2069,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>87</v>
+        <v>357</v>
       </c>
       <c r="N11" s="7">
-        <v>58135</v>
+        <v>239124</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1842,10 +2090,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1857,10 +2105,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>393</v>
+        <v>190</v>
       </c>
       <c r="I12" s="7">
-        <v>264971</v>
+        <v>126916</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1872,10 +2120,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>815</v>
+        <v>402</v>
       </c>
       <c r="N12" s="7">
-        <v>546469</v>
+        <v>268430</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1889,55 +2137,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>831</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>552475</v>
+        <v>15722</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>755</v>
+        <v>40</v>
       </c>
       <c r="I13" s="7">
-        <v>507205</v>
+        <v>27131</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>1586</v>
+        <v>63</v>
       </c>
       <c r="N13" s="7">
-        <v>1059680</v>
+        <v>42853</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,49 +2194,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="D14" s="7">
-        <v>168873</v>
+        <v>190327</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="I14" s="7">
-        <v>171730</v>
+        <v>166966</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="N14" s="7">
-        <v>340603</v>
+        <v>357293</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1997,55 +2245,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>253</v>
+      </c>
+      <c r="D16" s="7">
+        <v>168873</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
+        <v>260</v>
+      </c>
+      <c r="I16" s="7">
+        <v>171730</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="7">
+        <v>513</v>
+      </c>
+      <c r="N16" s="7">
+        <v>340603</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>831</v>
+      </c>
+      <c r="D17" s="7">
+        <v>552475</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
+        <v>755</v>
+      </c>
+      <c r="I17" s="7">
+        <v>507205</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1586</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1059680</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1084</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>721348</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1015</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>678935</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2099</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1400283</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2058,8 +2467,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76929B82-FE4A-4B83-961D-15D1B36F3EEB}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7793932-2ECD-4D1E-8728-C2A8FF13E652}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2075,7 +2484,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2176,49 +2585,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="D4" s="7">
-        <v>129633</v>
+        <v>90579</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="I4" s="7">
-        <v>122000</v>
+        <v>84118</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>369</v>
+        <v>253</v>
       </c>
       <c r="N4" s="7">
-        <v>251633</v>
+        <v>174697</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,49 +2636,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="D5" s="7">
-        <v>101301</v>
+        <v>48538</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="I5" s="7">
-        <v>99873</v>
+        <v>59710</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>292</v>
+        <v>160</v>
       </c>
       <c r="N5" s="7">
-        <v>201175</v>
+        <v>108248</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,10 +2687,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>327</v>
+        <v>198</v>
       </c>
       <c r="D6" s="7">
-        <v>230934</v>
+        <v>139117</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2293,10 +2702,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>334</v>
+        <v>215</v>
       </c>
       <c r="I6" s="7">
-        <v>221873</v>
+        <v>143828</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2308,10 +2717,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>661</v>
+        <v>413</v>
       </c>
       <c r="N6" s="7">
-        <v>452808</v>
+        <v>282945</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2331,49 +2740,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>324</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7">
-        <v>234527</v>
+        <v>16172</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="I7" s="7">
-        <v>212944</v>
+        <v>28105</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>623</v>
+        <v>63</v>
       </c>
       <c r="N7" s="7">
-        <v>447471</v>
+        <v>44276</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,49 +2791,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>348</v>
       </c>
       <c r="D8" s="7">
-        <v>6792</v>
+        <v>250791</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="H8" s="7">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="I8" s="7">
-        <v>15147</v>
+        <v>206062</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="M8" s="7">
-        <v>30</v>
+        <v>645</v>
       </c>
       <c r="N8" s="7">
-        <v>21939</v>
+        <v>456854</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,10 +2842,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="D9" s="7">
-        <v>241319</v>
+        <v>266963</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2448,10 +2857,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="I9" s="7">
-        <v>228091</v>
+        <v>234167</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2463,10 +2872,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>653</v>
+        <v>708</v>
       </c>
       <c r="N9" s="7">
-        <v>469410</v>
+        <v>501130</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2486,49 +2895,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>384</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>260350</v>
+        <v>1977</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>322</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>227343</v>
+        <v>6523</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>706</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>487693</v>
+        <v>8499</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,49 +2946,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c r="D11" s="7">
-        <v>10352</v>
+        <v>154944</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="I11" s="7">
-        <v>28431</v>
+        <v>149883</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>57</v>
+        <v>435</v>
       </c>
       <c r="N11" s="7">
-        <v>38783</v>
+        <v>304828</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,10 +2997,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>399</v>
+        <v>226</v>
       </c>
       <c r="D12" s="7">
-        <v>270702</v>
+        <v>156921</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2603,10 +3012,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>364</v>
+        <v>222</v>
       </c>
       <c r="I12" s="7">
-        <v>255774</v>
+        <v>156406</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2618,10 +3027,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>763</v>
+        <v>448</v>
       </c>
       <c r="N12" s="7">
-        <v>526476</v>
+        <v>313327</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2635,55 +3044,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>892</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>624510</v>
+        <v>9718</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
-        <v>806</v>
+        <v>36</v>
       </c>
       <c r="I13" s="7">
-        <v>562287</v>
+        <v>24705</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
-        <v>1698</v>
+        <v>50</v>
       </c>
       <c r="N13" s="7">
-        <v>1186798</v>
+        <v>34424</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,49 +3101,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>251</v>
+      </c>
+      <c r="D14" s="7">
+        <v>170237</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="7">
-        <v>118446</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I14" s="7">
-        <v>143451</v>
+        <v>146632</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>379</v>
+        <v>458</v>
       </c>
       <c r="N14" s="7">
-        <v>261896</v>
+        <v>316868</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,55 +3152,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>265</v>
+      </c>
+      <c r="D15" s="7">
+        <v>179955</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>508</v>
+      </c>
+      <c r="N15" s="7">
+        <v>351292</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>168</v>
+      </c>
+      <c r="D16" s="7">
+        <v>118446</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" s="7">
+        <v>211</v>
+      </c>
+      <c r="I16" s="7">
+        <v>143451</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M16" s="7">
+        <v>379</v>
+      </c>
+      <c r="N16" s="7">
+        <v>261896</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>892</v>
+      </c>
+      <c r="D17" s="7">
+        <v>624510</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="7">
+        <v>806</v>
+      </c>
+      <c r="I17" s="7">
+        <v>562287</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1698</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1186798</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1060</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>742956</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1017</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>705738</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2077</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1448694</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2804,8 +3374,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D29583C-9D9C-4BC3-806C-EF7C2282BBB8}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F7C9EA-87BD-46B1-9A97-A75D23EEC1DE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2821,7 +3391,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2922,49 +3492,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="D4" s="7">
-        <v>118018</v>
+        <v>71321</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="I4" s="7">
-        <v>102700</v>
+        <v>82542</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
-        <v>349</v>
+        <v>236</v>
       </c>
       <c r="N4" s="7">
-        <v>220718</v>
+        <v>153863</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,49 +3543,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="D5" s="7">
-        <v>92600</v>
+        <v>50298</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="I5" s="7">
-        <v>97898</v>
+        <v>48442</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
-        <v>293</v>
+        <v>157</v>
       </c>
       <c r="N5" s="7">
-        <v>190498</v>
+        <v>98740</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,10 +3594,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>317</v>
+        <v>183</v>
       </c>
       <c r="D6" s="7">
-        <v>210618</v>
+        <v>121619</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3039,10 +3609,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>325</v>
+        <v>210</v>
       </c>
       <c r="I6" s="7">
-        <v>200598</v>
+        <v>130984</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3054,10 +3624,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>642</v>
+        <v>393</v>
       </c>
       <c r="N6" s="7">
-        <v>411216</v>
+        <v>252603</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3077,49 +3647,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>337</v>
+        <v>52</v>
       </c>
       <c r="D7" s="7">
-        <v>232983</v>
+        <v>34611</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>175</v>
+        <v>56</v>
       </c>
       <c r="H7" s="7">
-        <v>323</v>
+        <v>51</v>
       </c>
       <c r="I7" s="7">
-        <v>210775</v>
+        <v>32373</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="M7" s="7">
-        <v>660</v>
+        <v>103</v>
       </c>
       <c r="N7" s="7">
-        <v>443758</v>
+        <v>66984</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,49 +3698,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>26</v>
+        <v>328</v>
       </c>
       <c r="D8" s="7">
-        <v>17069</v>
+        <v>223450</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>64</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="H8" s="7">
-        <v>37</v>
+        <v>281</v>
       </c>
       <c r="I8" s="7">
-        <v>24558</v>
+        <v>178144</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
-        <v>63</v>
+        <v>609</v>
       </c>
       <c r="N8" s="7">
-        <v>41627</v>
+        <v>401594</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,10 +3749,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3194,10 +3764,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3209,10 +3779,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3232,49 +3802,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>359</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>265147</v>
+        <v>7498</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
-        <v>329</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>235172</v>
+        <v>15035</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
-        <v>688</v>
+        <v>32</v>
       </c>
       <c r="N10" s="7">
-        <v>500320</v>
+        <v>22533</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,49 +3853,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="D11" s="7">
-        <v>14735</v>
+        <v>180027</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="H11" s="7">
-        <v>45</v>
+        <v>251</v>
       </c>
       <c r="I11" s="7">
-        <v>31911</v>
+        <v>173864</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
-        <v>65</v>
+        <v>502</v>
       </c>
       <c r="N11" s="7">
-        <v>46645</v>
+        <v>353891</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,10 +3904,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>379</v>
+        <v>262</v>
       </c>
       <c r="D12" s="7">
-        <v>279882</v>
+        <v>187525</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3349,10 +3919,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>374</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267083</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3364,10 +3934,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>753</v>
+        <v>534</v>
       </c>
       <c r="N12" s="7">
-        <v>546965</v>
+        <v>376424</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3381,55 +3951,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>875</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>616149</v>
+        <v>10975</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
-        <v>822</v>
+        <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>548648</v>
+        <v>24415</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
-        <v>1697</v>
+        <v>50</v>
       </c>
       <c r="N13" s="7">
-        <v>1164797</v>
+        <v>35390</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,49 +4008,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="D14" s="7">
-        <v>124404</v>
+        <v>162373</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="I14" s="7">
-        <v>154366</v>
+        <v>148199</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="N14" s="7">
-        <v>278770</v>
+        <v>310572</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,55 +4059,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>234</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173348</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>245</v>
+      </c>
+      <c r="I15" s="7">
+        <v>172614</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>479</v>
+      </c>
+      <c r="N15" s="7">
+        <v>345962</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>184</v>
+      </c>
+      <c r="D16" s="7">
+        <v>124404</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H16" s="7">
+        <v>237</v>
+      </c>
+      <c r="I16" s="7">
+        <v>154366</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="M16" s="7">
+        <v>421</v>
+      </c>
+      <c r="N16" s="7">
+        <v>278770</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>875</v>
+      </c>
+      <c r="D17" s="7">
+        <v>616149</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H17" s="7">
+        <v>822</v>
+      </c>
+      <c r="I17" s="7">
+        <v>548648</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1697</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1164797</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1059</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>740553</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1059</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>703014</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2118</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1443567</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3550,8 +4281,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EEDDD4-08FB-4ABE-A807-8F0643355269}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF4A9A7-0877-4B12-9A08-A3532D23C501}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3567,7 +4298,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3668,49 +4399,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="D4" s="7">
-        <v>74100</v>
+        <v>28465</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="I4" s="7">
-        <v>67614</v>
+        <v>24820</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
-        <v>260</v>
+        <v>111</v>
       </c>
       <c r="N4" s="7">
-        <v>141714</v>
+        <v>53285</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,49 +4450,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="D5" s="7">
-        <v>40605</v>
+        <v>27257</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="I5" s="7">
-        <v>34673</v>
+        <v>31033</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="N5" s="7">
-        <v>75278</v>
+        <v>58290</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,10 +4501,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="D6" s="7">
-        <v>114705</v>
+        <v>55722</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3785,10 +4516,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="I6" s="7">
-        <v>102287</v>
+        <v>55853</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3800,10 +4531,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>416</v>
+        <v>216</v>
       </c>
       <c r="N6" s="7">
-        <v>216992</v>
+        <v>111575</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3823,49 +4554,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>234</v>
+        <v>47</v>
       </c>
       <c r="D7" s="7">
-        <v>179987</v>
+        <v>26615</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>304</v>
       </c>
       <c r="H7" s="7">
-        <v>238</v>
+        <v>49</v>
       </c>
       <c r="I7" s="7">
-        <v>166893</v>
+        <v>30532</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>306</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="M7" s="7">
+        <v>96</v>
+      </c>
+      <c r="N7" s="7">
+        <v>57147</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="M7" s="7">
-        <v>472</v>
-      </c>
-      <c r="N7" s="7">
-        <v>346880</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,49 +4605,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>36</v>
+        <v>228</v>
       </c>
       <c r="D8" s="7">
-        <v>24180</v>
+        <v>148231</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>310</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>311</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>312</v>
       </c>
       <c r="H8" s="7">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c r="I8" s="7">
-        <v>31374</v>
+        <v>128233</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>313</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>314</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="M8" s="7">
-        <v>79</v>
+        <v>437</v>
       </c>
       <c r="N8" s="7">
-        <v>55555</v>
+        <v>276463</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,10 +4656,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D9" s="7">
-        <v>204167</v>
+        <v>174846</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3940,10 +4671,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3955,10 +4686,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>402435</v>
+        <v>333610</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3978,49 +4709,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>415</v>
+        <v>34</v>
       </c>
       <c r="D10" s="7">
-        <v>348375</v>
+        <v>24911</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>139</v>
+        <v>319</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7">
-        <v>390</v>
+        <v>27</v>
       </c>
       <c r="I10" s="7">
-        <v>289557</v>
+        <v>20676</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>265</v>
+        <v>322</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>266</v>
+        <v>323</v>
       </c>
       <c r="M10" s="7">
-        <v>805</v>
+        <v>61</v>
       </c>
       <c r="N10" s="7">
-        <v>637933</v>
+        <v>45587</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>324</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>325</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,49 +4760,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>64</v>
+        <v>208</v>
       </c>
       <c r="D11" s="7">
-        <v>54335</v>
+        <v>176679</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>148</v>
+        <v>328</v>
       </c>
       <c r="H11" s="7">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c r="I11" s="7">
-        <v>61251</v>
+        <v>155437</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>272</v>
+        <v>329</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="M11" s="7">
-        <v>136</v>
+        <v>414</v>
       </c>
       <c r="N11" s="7">
-        <v>115586</v>
+        <v>332116</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,10 +4811,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>479</v>
+        <v>242</v>
       </c>
       <c r="D12" s="7">
-        <v>402710</v>
+        <v>201590</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4095,10 +4826,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>462</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>350808</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4110,10 +4841,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>941</v>
+        <v>475</v>
       </c>
       <c r="N12" s="7">
-        <v>753519</v>
+        <v>377703</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4127,55 +4858,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>783</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7">
-        <v>602461</v>
+        <v>39129</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>334</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>335</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="H13" s="7">
-        <v>754</v>
+        <v>59</v>
       </c>
       <c r="I13" s="7">
-        <v>524065</v>
+        <v>51271</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>337</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>338</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>339</v>
       </c>
       <c r="M13" s="7">
-        <v>1537</v>
+        <v>103</v>
       </c>
       <c r="N13" s="7">
-        <v>1126527</v>
+        <v>90400</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>340</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>341</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>247</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,49 +4915,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>186</v>
+        <v>298</v>
       </c>
       <c r="D14" s="7">
-        <v>119121</v>
+        <v>250295</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>343</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>344</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>345</v>
       </c>
       <c r="H14" s="7">
-        <v>185</v>
+        <v>283</v>
       </c>
       <c r="I14" s="7">
-        <v>127298</v>
+        <v>209362</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
-        <v>371</v>
+        <v>581</v>
       </c>
       <c r="N14" s="7">
-        <v>246419</v>
+        <v>459657</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>255</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,55 +4966,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>342</v>
+      </c>
+      <c r="D15" s="7">
+        <v>289424</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>342</v>
+      </c>
+      <c r="I15" s="7">
+        <v>260633</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>684</v>
+      </c>
+      <c r="N15" s="7">
+        <v>550057</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>186</v>
+      </c>
+      <c r="D16" s="7">
+        <v>119121</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H16" s="7">
+        <v>185</v>
+      </c>
+      <c r="I16" s="7">
+        <v>127298</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="M16" s="7">
+        <v>371</v>
+      </c>
+      <c r="N16" s="7">
+        <v>246419</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>783</v>
+      </c>
+      <c r="D17" s="7">
+        <v>602461</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H17" s="7">
+        <v>754</v>
+      </c>
+      <c r="I17" s="7">
+        <v>524065</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1537</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1126527</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>969</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>721582</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>939</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>651363</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1908</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1372946</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP24_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP24_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FF6C507-4D4D-4943-84B0-AE4839DAE84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A9F48C0-7416-4A60-8446-5FBCA282B2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7E7BF590-26F8-4C90-B12F-9606DA3DC758}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{87995D74-40EF-4A69-92F8-CC400E2409D3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="376">
   <si>
     <t>Menores según si no hacen ejercicio en 2007 (Tasa respuesta: 99,76%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>70,88%</t>
   </si>
   <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
   </si>
   <si>
     <t>72,81%</t>
   </si>
   <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
   </si>
   <si>
     <t>71,79%</t>
   </si>
   <si>
-    <t>66,81%</t>
+    <t>66,63%</t>
   </si>
   <si>
     <t>76,36%</t>
@@ -107,19 +107,19 @@
     <t>29,12%</t>
   </si>
   <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
   </si>
   <si>
     <t>27,19%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
   </si>
   <si>
     <t>28,21%</t>
@@ -128,7 +128,7 @@
     <t>23,64%</t>
   </si>
   <si>
-    <t>33,19%</t>
+    <t>33,37%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>21,43%</t>
   </si>
   <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
   </si>
   <si>
     <t>20,53%</t>
   </si>
   <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
   </si>
   <si>
     <t>20,98%</t>
   </si>
   <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
   </si>
   <si>
     <t>78,57%</t>
   </si>
   <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
   </si>
   <si>
     <t>79,47%</t>
   </si>
   <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
   </si>
   <si>
     <t>79,02%</t>
   </si>
   <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -197,55 +197,55 @@
     <t>9,68%</t>
   </si>
   <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
   </si>
   <si>
     <t>12,29%</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
   </si>
   <si>
     <t>10,92%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
   </si>
   <si>
     <t>90,32%</t>
   </si>
   <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
   </si>
   <si>
     <t>87,71%</t>
   </si>
   <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
   </si>
   <si>
     <t>89,08%</t>
   </si>
   <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -254,109 +254,109 @@
     <t>7,63%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
   </si>
   <si>
     <t>13,98%</t>
   </si>
   <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
   </si>
   <si>
     <t>92,37%</t>
   </si>
   <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
   </si>
   <si>
     <t>86,02%</t>
   </si>
   <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
   </si>
   <si>
     <t>89,29%</t>
   </si>
   <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
   <si>
     <t>23,41%</t>
   </si>
   <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
   </si>
   <si>
     <t>25,29%</t>
   </si>
   <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
   </si>
   <si>
     <t>24,32%</t>
   </si>
   <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
   </si>
   <si>
     <t>76,59%</t>
   </si>
   <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
   </si>
   <si>
     <t>74,71%</t>
   </si>
   <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
   </si>
   <si>
     <t>75,68%</t>
   </si>
   <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -368,103 +368,109 @@
     <t>65,11%</t>
   </si>
   <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
   </si>
   <si>
     <t>58,49%</t>
   </si>
   <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
   </si>
   <si>
     <t>61,74%</t>
   </si>
   <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
   </si>
   <si>
     <t>34,89%</t>
   </si>
   <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
   </si>
   <si>
     <t>41,51%</t>
   </si>
   <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
   </si>
   <si>
     <t>38,26%</t>
   </si>
   <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
   </si>
   <si>
     <t>12,0%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
   </si>
   <si>
     <t>8,84%</t>
   </si>
   <si>
-    <t>6,93%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
   </si>
   <si>
     <t>93,94%</t>
   </si>
   <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
   </si>
   <si>
     <t>88,0%</t>
   </si>
   <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
   </si>
   <si>
     <t>91,16%</t>
   </si>
   <si>
-    <t>93,07%</t>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
   </si>
   <si>
     <t>1,26%</t>
@@ -473,31 +479,31 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>3,4%</t>
+    <t>3,46%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
   </si>
   <si>
     <t>98,74%</t>
   </si>
   <si>
-    <t>96,6%</t>
+    <t>96,54%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -506,289 +512,301 @@
     <t>95,83%</t>
   </si>
   <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
   </si>
   <si>
     <t>97,29%</t>
   </si>
   <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
   </si>
   <si>
     <t>5,4%</t>
   </si>
   <si>
-    <t>3,12%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
   </si>
   <si>
     <t>9,8%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
   </si>
   <si>
     <t>94,6%</t>
   </si>
   <si>
-    <t>96,88%</t>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
   </si>
   <si>
     <t>85,58%</t>
   </si>
   <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
   </si>
   <si>
     <t>90,2%</t>
   </si>
   <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
   </si>
   <si>
     <t>20,33%</t>
   </si>
   <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
   </si>
   <si>
     <t>18,08%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
   </si>
   <si>
     <t>84,06%</t>
   </si>
   <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
   </si>
   <si>
     <t>79,67%</t>
   </si>
   <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
   </si>
   <si>
     <t>81,92%</t>
   </si>
   <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>Menores según si no hacen ejercicio en 2015 (Tasa respuesta: 99,62%)</t>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>Menores según si no hacen ejercicio en 2016 (Tasa respuesta: 99,62%)</t>
   </si>
   <si>
     <t>58,64%</t>
   </si>
   <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
   </si>
   <si>
     <t>63,02%</t>
   </si>
   <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
   </si>
   <si>
     <t>60,91%</t>
   </si>
   <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
   </si>
   <si>
     <t>41,36%</t>
   </si>
   <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
   </si>
   <si>
     <t>36,98%</t>
   </si>
   <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
   </si>
   <si>
     <t>39,09%</t>
   </si>
   <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
   </si>
   <si>
     <t>13,41%</t>
   </si>
   <si>
-    <t>10,58%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
   </si>
   <si>
     <t>14,3%</t>
   </si>
   <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
   </si>
   <si>
     <t>86,59%</t>
   </si>
   <si>
-    <t>89,42%</t>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
   </si>
   <si>
     <t>84,62%</t>
   </si>
   <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
   </si>
   <si>
     <t>85,7%</t>
   </si>
   <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
   </si>
   <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
   </si>
   <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
   </si>
   <si>
     <t>5,99%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
   </si>
   <si>
     <t>96,0%</t>
   </si>
   <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>92,04%</t>
   </si>
   <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>94,01%</t>
   </si>
   <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
   <si>
     <t>6,33%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
   </si>
   <si>
     <t>14,14%</t>
@@ -797,31 +815,31 @@
     <t>10,05%</t>
   </si>
   <si>
-    <t>18,84%</t>
+    <t>18,71%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
   </si>
   <si>
     <t>93,67%</t>
   </si>
   <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>85,86%</t>
   </si>
   <si>
-    <t>81,16%</t>
+    <t>81,29%</t>
   </si>
   <si>
     <t>89,95%</t>
@@ -830,64 +848,58 @@
     <t>89,77%</t>
   </si>
   <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
   </si>
   <si>
     <t>16,8%</t>
   </si>
   <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
   </si>
   <si>
     <t>21,96%</t>
   </si>
   <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
   </si>
   <si>
     <t>19,31%</t>
   </si>
   <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
+    <t>17,67%</t>
   </si>
   <si>
     <t>83,2%</t>
   </si>
   <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
   </si>
   <si>
     <t>78,04%</t>
   </si>
   <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
   </si>
   <si>
     <t>80,69%</t>
   </si>
   <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
+    <t>82,33%</t>
   </si>
   <si>
     <t>Menores según si no hacen ejercicio en 2023 (Tasa respuesta: 99,38%)</t>
@@ -896,259 +908,265 @@
     <t>51,08%</t>
   </si>
   <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
   </si>
   <si>
     <t>44,44%</t>
   </si>
   <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
   </si>
   <si>
     <t>47,76%</t>
   </si>
   <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
   </si>
   <si>
     <t>48,92%</t>
   </si>
   <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
   </si>
   <si>
     <t>55,56%</t>
   </si>
   <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
   </si>
   <si>
     <t>52,24%</t>
   </si>
   <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
   </si>
   <si>
     <t>15,22%</t>
   </si>
   <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
   </si>
   <si>
     <t>19,23%</t>
   </si>
   <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>17,13%</t>
   </si>
   <si>
-    <t>20,6%</t>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
   </si>
   <si>
     <t>84,78%</t>
   </si>
   <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
   </si>
   <si>
     <t>80,77%</t>
   </si>
   <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
   </si>
   <si>
     <t>82,87%</t>
   </si>
   <si>
-    <t>79,4%</t>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
   </si>
   <si>
     <t>12,36%</t>
   </si>
   <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
+    <t>17,46%</t>
   </si>
   <si>
     <t>11,74%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
   </si>
   <si>
     <t>12,07%</t>
   </si>
   <si>
-    <t>9,42%</t>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
   </si>
   <si>
     <t>87,64%</t>
   </si>
   <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
+    <t>82,54%</t>
   </si>
   <si>
     <t>88,26%</t>
   </si>
   <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
   </si>
   <si>
     <t>87,93%</t>
   </si>
   <si>
-    <t>90,58%</t>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
   </si>
   <si>
     <t>13,52%</t>
   </si>
   <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
   </si>
   <si>
     <t>19,67%</t>
   </si>
   <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
   </si>
   <si>
     <t>16,43%</t>
   </si>
   <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
   </si>
   <si>
     <t>86,48%</t>
   </si>
   <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>80,33%</t>
   </si>
   <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
   </si>
   <si>
     <t>83,57%</t>
   </si>
   <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
   </si>
   <si>
     <t>16,51%</t>
   </si>
   <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
   </si>
   <si>
     <t>19,54%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
   </si>
   <si>
     <t>17,95%</t>
   </si>
   <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
   </si>
   <si>
     <t>83,49%</t>
   </si>
   <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
   </si>
   <si>
     <t>80,46%</t>
   </si>
   <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
   </si>
   <si>
     <t>82,05%</t>
   </si>
   <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9081D4-B1E0-4091-AE48-269755D85505}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15A866B-698B-4437-920E-F7C9FEE8C967}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2467,7 +2485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7793932-2ECD-4D1E-8728-C2A8FF13E652}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1A4657-11B6-4732-A5F9-4A145191F1AD}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2782,7 +2800,7 @@
         <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,13 +2815,13 @@
         <v>250791</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>297</v>
@@ -2812,13 +2830,13 @@
         <v>206062</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>645</v>
@@ -2827,13 +2845,13 @@
         <v>456854</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,13 +2919,13 @@
         <v>1977</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -2916,13 +2934,13 @@
         <v>6523</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2931,13 +2949,13 @@
         <v>8499</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2970,13 @@
         <v>154944</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
         <v>212</v>
@@ -2967,13 +2985,13 @@
         <v>149883</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
         <v>435</v>
@@ -2982,13 +3000,13 @@
         <v>304828</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,13 +3074,13 @@
         <v>9718</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -3071,13 +3089,13 @@
         <v>24705</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -3086,13 +3104,13 @@
         <v>34424</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3125,13 @@
         <v>170237</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>207</v>
@@ -3122,13 +3140,13 @@
         <v>146632</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>458</v>
@@ -3137,13 +3155,13 @@
         <v>316868</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3229,13 @@
         <v>118446</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
         <v>211</v>
@@ -3226,13 +3244,13 @@
         <v>143451</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>379</v>
@@ -3241,13 +3259,13 @@
         <v>261896</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,13 +3280,13 @@
         <v>624510</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
         <v>806</v>
@@ -3277,13 +3295,13 @@
         <v>562287</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>1698</v>
@@ -3292,13 +3310,13 @@
         <v>1186798</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,7 +3392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F7C9EA-87BD-46B1-9A97-A75D23EEC1DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602BCB1E-C8F6-4267-A0CC-6CA0454B8C63}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3391,7 +3409,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3498,13 +3516,13 @@
         <v>71321</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
         <v>130</v>
@@ -3513,13 +3531,13 @@
         <v>82542</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>236</v>
@@ -3528,13 +3546,13 @@
         <v>153863</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,13 +3567,13 @@
         <v>50298</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
         <v>80</v>
@@ -3564,13 +3582,13 @@
         <v>48442</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
         <v>157</v>
@@ -3579,13 +3597,13 @@
         <v>98740</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3671,13 @@
         <v>34611</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
         <v>51</v>
@@ -3668,13 +3686,13 @@
         <v>32373</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>103</v>
@@ -3683,13 +3701,13 @@
         <v>66984</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,13 +3722,13 @@
         <v>223450</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>64</v>
+        <v>227</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="H8" s="7">
         <v>281</v>
@@ -3719,13 +3737,13 @@
         <v>178144</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>609</v>
@@ -3734,13 +3752,13 @@
         <v>401594</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,13 +3826,13 @@
         <v>7498</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -3823,13 +3841,13 @@
         <v>15035</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -3838,13 +3856,13 @@
         <v>22533</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,13 +3877,13 @@
         <v>180027</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H11" s="7">
         <v>251</v>
@@ -3874,13 +3892,13 @@
         <v>173864</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M11" s="7">
         <v>502</v>
@@ -3889,13 +3907,13 @@
         <v>353891</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,13 +3981,13 @@
         <v>10975</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -3978,13 +3996,13 @@
         <v>24415</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -3993,13 +4011,13 @@
         <v>35390</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4032,13 @@
         <v>162373</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H14" s="7">
         <v>210</v>
@@ -4029,13 +4047,13 @@
         <v>148199</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M14" s="7">
         <v>429</v>
@@ -4044,13 +4062,13 @@
         <v>310572</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4136,13 @@
         <v>124404</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H16" s="7">
         <v>237</v>
@@ -4133,13 +4151,13 @@
         <v>154366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>421</v>
@@ -4148,13 +4166,13 @@
         <v>278770</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>273</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4187,13 @@
         <v>616149</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="H17" s="7">
         <v>822</v>
@@ -4184,13 +4202,13 @@
         <v>548648</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M17" s="7">
         <v>1697</v>
@@ -4199,13 +4217,13 @@
         <v>1164797</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>281</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,7 +4299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF4A9A7-0877-4B12-9A08-A3532D23C501}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BF84B2-6171-433C-B4A5-B9B6A378732D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4298,7 +4316,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4405,13 +4423,13 @@
         <v>28465</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -4420,13 +4438,13 @@
         <v>24820</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M4" s="7">
         <v>111</v>
@@ -4435,13 +4453,13 @@
         <v>53285</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,13 +4474,13 @@
         <v>27257</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H5" s="7">
         <v>56</v>
@@ -4471,13 +4489,13 @@
         <v>31033</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M5" s="7">
         <v>105</v>
@@ -4486,13 +4504,13 @@
         <v>58290</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,13 +4578,13 @@
         <v>26615</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H7" s="7">
         <v>49</v>
@@ -4575,13 +4593,13 @@
         <v>30532</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M7" s="7">
         <v>96</v>
@@ -4590,13 +4608,13 @@
         <v>57147</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +4629,13 @@
         <v>148231</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H8" s="7">
         <v>209</v>
@@ -4626,13 +4644,13 @@
         <v>128233</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="M8" s="7">
         <v>437</v>
@@ -4641,13 +4659,13 @@
         <v>276463</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4733,13 @@
         <v>24911</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>319</v>
+        <v>130</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -4730,13 +4748,13 @@
         <v>20676</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -4745,13 +4763,13 @@
         <v>45587</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4784,13 @@
         <v>176679</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>328</v>
+        <v>140</v>
       </c>
       <c r="H11" s="7">
         <v>206</v>
@@ -4781,13 +4799,13 @@
         <v>155437</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="M11" s="7">
         <v>414</v>
@@ -4796,13 +4814,13 @@
         <v>332116</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4888,13 @@
         <v>39129</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -4885,13 +4903,13 @@
         <v>51271</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="M13" s="7">
         <v>103</v>
@@ -4900,13 +4918,13 @@
         <v>90400</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +4939,13 @@
         <v>250295</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
         <v>283</v>
@@ -4936,13 +4954,13 @@
         <v>209362</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
         <v>581</v>
@@ -4951,13 +4969,13 @@
         <v>459657</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +5043,13 @@
         <v>119121</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H16" s="7">
         <v>185</v>
@@ -5040,13 +5058,13 @@
         <v>127298</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="M16" s="7">
         <v>371</v>
@@ -5055,13 +5073,13 @@
         <v>246419</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5094,13 @@
         <v>602461</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="H17" s="7">
         <v>754</v>
@@ -5091,13 +5109,13 @@
         <v>524065</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="M17" s="7">
         <v>1537</v>
@@ -5106,13 +5124,13 @@
         <v>1126527</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP24_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP24_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A9F48C0-7416-4A60-8446-5FBCA282B2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{864F9046-E881-4D3B-86AC-FE125A65836D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{87995D74-40EF-4A69-92F8-CC400E2409D3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1AE78316-DAA7-4757-85E2-74C4B81E3020}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="376">
-  <si>
-    <t>Menores según si no hacen ejercicio en 2007 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="368">
+  <si>
+    <t>Menores según si no hacen ejercicio en su tiempo libre en 2007 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
     <t>70,88%</t>
   </si>
   <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
   </si>
   <si>
     <t>71,79%</t>
   </si>
   <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
     <t>29,12%</t>
   </si>
   <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
   </si>
   <si>
     <t>28,21%</t>
   </si>
   <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1036 +137,1012 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
     <t>21,43%</t>
   </si>
   <si>
     <t>17,56%</t>
   </si>
   <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
+    <t>25,91%</t>
   </si>
   <si>
     <t>20,98%</t>
   </si>
   <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
   </si>
   <si>
     <t>78,57%</t>
   </si>
   <si>
-    <t>73,97%</t>
+    <t>74,09%</t>
   </si>
   <si>
     <t>82,44%</t>
   </si>
   <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
     <t>79,02%</t>
   </si>
   <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
     <t>9,68%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si no hacen ejercicio en su tiempo libre en 2012 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>Menores según si no hacen ejercicio en su tiempo libre en 2016 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>Menores según si no hacen ejercicio en su tiempo libre en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
   </si>
   <si>
     <t>18,32%</t>
   </si>
   <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
   </si>
   <si>
     <t>81,68%</t>
   </si>
   <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si no hacen ejercicio en 2012 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>Menores según si no hacen ejercicio en 2016 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>Menores según si no hacen ejercicio en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
   </si>
   <si>
     <t>12,07%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
   </si>
   <si>
     <t>87,93%</t>
   </si>
   <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15A866B-698B-4437-920E-F7C9FEE8C967}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A340850A-E846-4379-A9A9-33CCC9ECF8EB}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1696,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D4" s="7">
-        <v>85074</v>
+        <v>77305</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1711,10 +1687,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="I4" s="7">
-        <v>77305</v>
+        <v>85074</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1747,10 +1723,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D5" s="7">
-        <v>34954</v>
+        <v>28866</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1762,10 +1738,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I5" s="7">
-        <v>28866</v>
+        <v>34954</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1798,25 +1774,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>180</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>120028</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1851,10 +1827,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D7" s="7">
-        <v>54371</v>
+        <v>51694</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1866,10 +1842,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I7" s="7">
-        <v>51694</v>
+        <v>54371</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1902,10 +1878,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D8" s="7">
-        <v>199385</v>
+        <v>200057</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1917,10 +1893,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I8" s="7">
-        <v>200057</v>
+        <v>199385</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1953,25 +1929,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>377</v>
+      </c>
+      <c r="D9" s="7">
+        <v>251751</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>377</v>
-      </c>
-      <c r="I9" s="7">
-        <v>251751</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2006,10 +1982,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>13705</v>
+        <v>15600</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2021,10 +1997,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>15600</v>
+        <v>13705</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2057,10 +2033,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="D11" s="7">
-        <v>127810</v>
+        <v>111316</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2072,10 +2048,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="I11" s="7">
-        <v>111316</v>
+        <v>127810</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2108,25 +2084,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>190</v>
+      </c>
+      <c r="D12" s="7">
+        <v>126916</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>190</v>
-      </c>
-      <c r="I12" s="7">
-        <v>126916</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2161,10 +2137,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D13" s="7">
-        <v>15722</v>
+        <v>27131</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2173,22 +2149,22 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="7">
+        <v>23</v>
+      </c>
+      <c r="I13" s="7">
+        <v>15722</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>40</v>
-      </c>
-      <c r="I13" s="7">
-        <v>27131</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="M13" s="7">
         <v>63</v>
@@ -2197,13 +2173,13 @@
         <v>42853</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2212,34 +2188,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>246</v>
+      </c>
+      <c r="D14" s="7">
+        <v>166966</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="7">
         <v>287</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>190327</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="7">
-        <v>246</v>
-      </c>
-      <c r="I14" s="7">
-        <v>166966</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>533</v>
@@ -2248,13 +2224,13 @@
         <v>357293</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,25 +2239,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2316,34 +2292,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>260</v>
+      </c>
+      <c r="D16" s="7">
+        <v>171730</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="7">
         <v>253</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>168873</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="7">
-        <v>260</v>
-      </c>
-      <c r="I16" s="7">
-        <v>171730</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>513</v>
@@ -2352,13 +2328,13 @@
         <v>340603</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,34 +2343,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>755</v>
+      </c>
+      <c r="D17" s="7">
+        <v>507205</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="7">
         <v>831</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>552475</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="7">
-        <v>755</v>
-      </c>
-      <c r="I17" s="7">
-        <v>507205</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1586</v>
@@ -2403,13 +2379,13 @@
         <v>1059680</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,25 +2394,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1015</v>
+      </c>
+      <c r="D18" s="7">
+        <v>678935</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1084</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>721348</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I18" s="7">
-        <v>678935</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2465,7 +2441,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2485,7 +2461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1A4657-11B6-4732-A5F9-4A145191F1AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730FB5BB-B5E6-4B3B-9550-2A1C9DC0AAD8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2502,7 +2478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2603,34 +2579,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>125</v>
+      </c>
+      <c r="D4" s="7">
+        <v>84118</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="7">
         <v>128</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>90579</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="7">
-        <v>125</v>
-      </c>
-      <c r="I4" s="7">
-        <v>84118</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M4" s="7">
         <v>253</v>
@@ -2639,13 +2615,13 @@
         <v>174697</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,34 +2630,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>90</v>
+      </c>
+      <c r="D5" s="7">
+        <v>59710</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="7">
         <v>70</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>48538</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" s="7">
-        <v>90</v>
-      </c>
-      <c r="I5" s="7">
-        <v>59710</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M5" s="7">
         <v>160</v>
@@ -2690,13 +2666,13 @@
         <v>108248</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,25 +2681,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>215</v>
+      </c>
+      <c r="D6" s="7">
+        <v>143828</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>198</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>139117</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>215</v>
-      </c>
-      <c r="I6" s="7">
-        <v>143828</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2758,34 +2734,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>40</v>
+      </c>
+      <c r="D7" s="7">
+        <v>28105</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="7">
         <v>23</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>16172</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H7" s="7">
-        <v>40</v>
-      </c>
-      <c r="I7" s="7">
-        <v>28105</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>63</v>
@@ -2794,13 +2770,13 @@
         <v>44276</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,34 +2785,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>297</v>
+      </c>
+      <c r="D8" s="7">
+        <v>206062</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="7">
         <v>348</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>250791</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H8" s="7">
-        <v>297</v>
-      </c>
-      <c r="I8" s="7">
-        <v>206062</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>645</v>
@@ -2845,13 +2821,13 @@
         <v>456854</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,25 +2836,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>337</v>
+      </c>
+      <c r="D9" s="7">
+        <v>234167</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>371</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>266963</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>337</v>
-      </c>
-      <c r="I9" s="7">
-        <v>234167</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2913,34 +2889,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6523</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="7">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>1977</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H10" s="7">
-        <v>10</v>
-      </c>
-      <c r="I10" s="7">
-        <v>6523</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2949,13 +2925,13 @@
         <v>8499</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,34 +2940,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>212</v>
+      </c>
+      <c r="D11" s="7">
+        <v>149883</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="7">
         <v>223</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>154944</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H11" s="7">
-        <v>212</v>
-      </c>
-      <c r="I11" s="7">
-        <v>149883</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M11" s="7">
         <v>435</v>
@@ -3000,13 +2976,13 @@
         <v>304828</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,25 +2991,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>222</v>
+      </c>
+      <c r="D12" s="7">
+        <v>156406</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>226</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>156921</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>222</v>
-      </c>
-      <c r="I12" s="7">
-        <v>156406</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3068,34 +3044,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>36</v>
+      </c>
+      <c r="D13" s="7">
+        <v>24705</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="7">
         <v>14</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>9718</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H13" s="7">
-        <v>36</v>
-      </c>
-      <c r="I13" s="7">
-        <v>24705</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -3104,13 +3080,13 @@
         <v>34424</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,34 +3095,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>207</v>
+      </c>
+      <c r="D14" s="7">
+        <v>146632</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" s="7">
         <v>251</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>170237</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H14" s="7">
-        <v>207</v>
-      </c>
-      <c r="I14" s="7">
-        <v>146632</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>458</v>
@@ -3155,13 +3131,13 @@
         <v>316868</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,25 +3146,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>265</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>179955</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3223,34 +3199,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>211</v>
+      </c>
+      <c r="D16" s="7">
+        <v>143451</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="7">
         <v>168</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>118446</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H16" s="7">
-        <v>211</v>
-      </c>
-      <c r="I16" s="7">
-        <v>143451</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
         <v>379</v>
@@ -3259,13 +3235,13 @@
         <v>261896</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,34 +3250,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>806</v>
+      </c>
+      <c r="D17" s="7">
+        <v>562287</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17" s="7">
         <v>892</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>624510</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H17" s="7">
-        <v>806</v>
-      </c>
-      <c r="I17" s="7">
-        <v>562287</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="M17" s="7">
         <v>1698</v>
@@ -3310,13 +3286,13 @@
         <v>1186798</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,25 +3301,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1017</v>
+      </c>
+      <c r="D18" s="7">
+        <v>705738</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1060</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>742956</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I18" s="7">
-        <v>705738</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3372,7 +3348,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3392,7 +3368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602BCB1E-C8F6-4267-A0CC-6CA0454B8C63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5F391D-751E-48F9-B76D-5B1B722C096E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3409,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3510,34 +3486,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>130</v>
+      </c>
+      <c r="D4" s="7">
+        <v>82542</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="7">
         <v>106</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>71321</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H4" s="7">
-        <v>130</v>
-      </c>
-      <c r="I4" s="7">
-        <v>82542</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
         <v>236</v>
@@ -3546,13 +3522,13 @@
         <v>153863</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,34 +3537,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>80</v>
+      </c>
+      <c r="D5" s="7">
+        <v>48442</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H5" s="7">
         <v>77</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>50298</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H5" s="7">
-        <v>80</v>
-      </c>
-      <c r="I5" s="7">
-        <v>48442</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="M5" s="7">
         <v>157</v>
@@ -3597,13 +3573,13 @@
         <v>98740</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,25 +3588,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>210</v>
+      </c>
+      <c r="D6" s="7">
+        <v>130984</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>183</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121619</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>210</v>
-      </c>
-      <c r="I6" s="7">
-        <v>130984</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3665,34 +3641,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7">
+        <v>32373</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H7" s="7">
         <v>52</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>34611</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H7" s="7">
-        <v>51</v>
-      </c>
-      <c r="I7" s="7">
-        <v>32373</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
         <v>103</v>
@@ -3701,13 +3677,13 @@
         <v>66984</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,34 +3692,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>281</v>
+      </c>
+      <c r="D8" s="7">
+        <v>178144</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H8" s="7">
         <v>328</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>223450</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H8" s="7">
-        <v>281</v>
-      </c>
-      <c r="I8" s="7">
-        <v>178144</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="M8" s="7">
         <v>609</v>
@@ -3752,13 +3728,13 @@
         <v>401594</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,25 +3743,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3820,34 +3796,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>21</v>
+      </c>
+      <c r="D10" s="7">
+        <v>15035</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H10" s="7">
         <v>11</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>7498</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H10" s="7">
-        <v>21</v>
-      </c>
-      <c r="I10" s="7">
-        <v>15035</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -3856,13 +3832,13 @@
         <v>22533</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,31 +3850,31 @@
         <v>251</v>
       </c>
       <c r="D11" s="7">
-        <v>180027</v>
+        <v>173864</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
         <v>251</v>
       </c>
       <c r="I11" s="7">
-        <v>173864</v>
+        <v>180027</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
         <v>502</v>
@@ -3907,13 +3883,13 @@
         <v>353891</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,25 +3898,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>262</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>187525</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3975,34 +3951,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>35</v>
+      </c>
+      <c r="D13" s="7">
+        <v>24415</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H13" s="7">
         <v>15</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>10975</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H13" s="7">
-        <v>35</v>
-      </c>
-      <c r="I13" s="7">
-        <v>24415</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -4011,13 +3987,13 @@
         <v>35390</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,34 +4002,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>210</v>
+      </c>
+      <c r="D14" s="7">
+        <v>148199</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H14" s="7">
         <v>219</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>162373</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H14" s="7">
-        <v>210</v>
-      </c>
-      <c r="I14" s="7">
-        <v>148199</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
         <v>429</v>
@@ -4062,13 +4038,13 @@
         <v>310572</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,25 +4053,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>245</v>
+      </c>
+      <c r="D15" s="7">
+        <v>172614</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>234</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>173348</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>245</v>
-      </c>
-      <c r="I15" s="7">
-        <v>172614</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4130,34 +4106,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>237</v>
+      </c>
+      <c r="D16" s="7">
+        <v>154366</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H16" s="7">
         <v>184</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>124404</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H16" s="7">
-        <v>237</v>
-      </c>
-      <c r="I16" s="7">
-        <v>154366</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="M16" s="7">
         <v>421</v>
@@ -4166,13 +4142,13 @@
         <v>278770</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,34 +4157,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>822</v>
+      </c>
+      <c r="D17" s="7">
+        <v>548648</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H17" s="7">
         <v>875</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>616149</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H17" s="7">
-        <v>822</v>
-      </c>
-      <c r="I17" s="7">
-        <v>548648</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="M17" s="7">
         <v>1697</v>
@@ -4217,13 +4193,13 @@
         <v>1164797</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,7 +4211,7 @@
         <v>1059</v>
       </c>
       <c r="D18" s="7">
-        <v>740553</v>
+        <v>703014</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4250,7 +4226,7 @@
         <v>1059</v>
       </c>
       <c r="I18" s="7">
-        <v>703014</v>
+        <v>740553</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4279,7 +4255,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4299,7 +4275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BF84B2-6171-433C-B4A5-B9B6A378732D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783E17C8-A774-4B4C-9A39-2D3A1284F695}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4316,7 +4292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4417,49 +4393,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>50</v>
+      </c>
+      <c r="D4" s="7">
+        <v>25352</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H4" s="7">
         <v>61</v>
       </c>
-      <c r="D4" s="7">
-        <v>28465</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H4" s="7">
-        <v>50</v>
-      </c>
       <c r="I4" s="7">
-        <v>24820</v>
+        <v>30679</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="M4" s="7">
         <v>111</v>
       </c>
       <c r="N4" s="7">
-        <v>53285</v>
+        <v>56032</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,49 +4444,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>56</v>
+      </c>
+      <c r="D5" s="7">
+        <v>30648</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H5" s="7">
         <v>49</v>
       </c>
-      <c r="D5" s="7">
-        <v>27257</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H5" s="7">
-        <v>56</v>
-      </c>
       <c r="I5" s="7">
-        <v>31033</v>
+        <v>27892</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="M5" s="7">
         <v>105</v>
       </c>
       <c r="N5" s="7">
-        <v>58290</v>
+        <v>58539</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,25 +4495,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>106</v>
+      </c>
+      <c r="D6" s="7">
+        <v>56000</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>110</v>
       </c>
-      <c r="D6" s="7">
-        <v>55722</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>106</v>
-      </c>
       <c r="I6" s="7">
-        <v>55853</v>
+        <v>58571</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4552,7 +4528,7 @@
         <v>216</v>
       </c>
       <c r="N6" s="7">
-        <v>111575</v>
+        <v>114571</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4572,49 +4548,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>49</v>
+      </c>
+      <c r="D7" s="7">
+        <v>33644</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H7" s="7">
         <v>47</v>
       </c>
-      <c r="D7" s="7">
-        <v>26615</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H7" s="7">
-        <v>49</v>
-      </c>
       <c r="I7" s="7">
-        <v>30532</v>
+        <v>28912</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="M7" s="7">
         <v>96</v>
       </c>
       <c r="N7" s="7">
-        <v>57147</v>
+        <v>62556</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,49 +4599,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>209</v>
+      </c>
+      <c r="D8" s="7">
+        <v>125655</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H8" s="7">
         <v>228</v>
       </c>
-      <c r="D8" s="7">
-        <v>148231</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H8" s="7">
-        <v>209</v>
-      </c>
       <c r="I8" s="7">
-        <v>128233</v>
+        <v>153178</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
         <v>437</v>
       </c>
       <c r="N8" s="7">
-        <v>276463</v>
+        <v>278833</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,25 +4650,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>275</v>
       </c>
-      <c r="D9" s="7">
-        <v>174846</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>182090</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4707,7 +4683,7 @@
         <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>333610</v>
+        <v>341389</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4727,49 +4703,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>27</v>
+      </c>
+      <c r="D10" s="7">
+        <v>20884</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H10" s="7">
         <v>34</v>
       </c>
-      <c r="D10" s="7">
-        <v>24911</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H10" s="7">
-        <v>27</v>
-      </c>
       <c r="I10" s="7">
-        <v>20676</v>
+        <v>28449</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
       </c>
       <c r="N10" s="7">
-        <v>45587</v>
+        <v>49333</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,49 +4754,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>206</v>
+      </c>
+      <c r="D11" s="7">
+        <v>152188</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H11" s="7">
         <v>208</v>
       </c>
-      <c r="D11" s="7">
-        <v>176679</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H11" s="7">
-        <v>206</v>
-      </c>
       <c r="I11" s="7">
-        <v>155437</v>
+        <v>183104</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="M11" s="7">
         <v>414</v>
       </c>
       <c r="N11" s="7">
-        <v>332116</v>
+        <v>335292</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,25 +4805,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>242</v>
       </c>
-      <c r="D12" s="7">
-        <v>201590</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>211553</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4862,7 +4838,7 @@
         <v>475</v>
       </c>
       <c r="N12" s="7">
-        <v>377703</v>
+        <v>384625</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4882,49 +4858,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>59</v>
+      </c>
+      <c r="D13" s="7">
+        <v>75515</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H13" s="7">
         <v>44</v>
       </c>
-      <c r="D13" s="7">
-        <v>39129</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H13" s="7">
-        <v>59</v>
-      </c>
       <c r="I13" s="7">
-        <v>51271</v>
+        <v>47461</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M13" s="7">
         <v>103</v>
       </c>
       <c r="N13" s="7">
-        <v>90400</v>
+        <v>122976</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,49 +4909,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>283</v>
+      </c>
+      <c r="D14" s="7">
+        <v>199943</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H14" s="7">
         <v>298</v>
       </c>
-      <c r="D14" s="7">
-        <v>250295</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="H14" s="7">
-        <v>283</v>
-      </c>
       <c r="I14" s="7">
-        <v>209362</v>
+        <v>258022</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
         <v>581</v>
       </c>
       <c r="N14" s="7">
-        <v>459657</v>
+        <v>457964</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,7 +4963,7 @@
         <v>342</v>
       </c>
       <c r="D15" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5002,7 +4978,7 @@
         <v>342</v>
       </c>
       <c r="I15" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5017,7 +4993,7 @@
         <v>684</v>
       </c>
       <c r="N15" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5037,49 +5013,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>185</v>
+      </c>
+      <c r="D16" s="7">
+        <v>155395</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H16" s="7">
         <v>186</v>
       </c>
-      <c r="D16" s="7">
-        <v>119121</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="H16" s="7">
-        <v>185</v>
-      </c>
       <c r="I16" s="7">
-        <v>127298</v>
+        <v>135501</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="M16" s="7">
         <v>371</v>
       </c>
       <c r="N16" s="7">
-        <v>246419</v>
+        <v>290896</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,49 +5064,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>754</v>
+      </c>
+      <c r="D17" s="7">
+        <v>508434</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H17" s="7">
         <v>783</v>
       </c>
-      <c r="D17" s="7">
-        <v>602461</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H17" s="7">
-        <v>754</v>
-      </c>
       <c r="I17" s="7">
-        <v>524065</v>
+        <v>622196</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="M17" s="7">
         <v>1537</v>
       </c>
       <c r="N17" s="7">
-        <v>1126527</v>
+        <v>1130630</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,25 +5115,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>939</v>
+      </c>
+      <c r="D18" s="7">
+        <v>663829</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>969</v>
       </c>
-      <c r="D18" s="7">
-        <v>721582</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>939</v>
-      </c>
       <c r="I18" s="7">
-        <v>651363</v>
+        <v>757697</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5172,7 +5148,7 @@
         <v>1908</v>
       </c>
       <c r="N18" s="7">
-        <v>1372946</v>
+        <v>1421526</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5186,7 +5162,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
